--- a/biology/Médecine/Wadie_Jary/Wadie_Jary.xlsx
+++ b/biology/Médecine/Wadie_Jary/Wadie_Jary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wadie Jary ou Wadii Jarii (arabe : وديع الجريء), également orthographié Wadii Jari, est un ancien footballeur et officiel sportif tunisien.
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecin de profession, il joue pour l'Union sportive de Ben Guerdane puis préside le club durant cinq ans[1]. Par ailleurs, il siège au bureau fédéral de la Fédération tunisienne de football durant six ans, tout en siégeant dans certaines de ses commissions, comme celle des équipes de jeunes ou de l'équipe nationale[2], et en présidant sa commission médicale[1].
-Il est élu président de la Fédération tunisienne de football en 2012 puis réélu en 2016[3] et en 2020[4]. À ce titre, il est également élu à la tête de l'Union nord-africaine de football en 2014[5]. Le 12 mars 2021, Wadie Jary est intégré au comité exécutif de la Confédération africaine de football lors de l'assemblée générale tenue à Rabat au Maroc ; il est l'unique candidat de la zone Nord pour ce poste et devient ainsi le quatrième Tunisien à y siéger[6].
-En février 2023, Wadie Jary n'a pas le droit de quitter le territoire tunisien à la suite d'une décision de justice car il est visé par plusieurs enquêtes portant sur l'organisation de matchs truqués, des affaires de blanchiment, de détournement de fonds et de corruption[7]. Le 25 octobre, il est arrêté et placé en détention à la prison de Mornaguia[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin de profession, il joue pour l'Union sportive de Ben Guerdane puis préside le club durant cinq ans. Par ailleurs, il siège au bureau fédéral de la Fédération tunisienne de football durant six ans, tout en siégeant dans certaines de ses commissions, comme celle des équipes de jeunes ou de l'équipe nationale, et en présidant sa commission médicale.
+Il est élu président de la Fédération tunisienne de football en 2012 puis réélu en 2016 et en 2020. À ce titre, il est également élu à la tête de l'Union nord-africaine de football en 2014. Le 12 mars 2021, Wadie Jary est intégré au comité exécutif de la Confédération africaine de football lors de l'assemblée générale tenue à Rabat au Maroc ; il est l'unique candidat de la zone Nord pour ce poste et devient ainsi le quatrième Tunisien à y siéger.
+En février 2023, Wadie Jary n'a pas le droit de quitter le territoire tunisien à la suite d'une décision de justice car il est visé par plusieurs enquêtes portant sur l'organisation de matchs truqués, des affaires de blanchiment, de détournement de fonds et de corruption. Le 25 octobre, il est arrêté et placé en détention à la prison de Mornaguia.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'Ordre de la République tunisienne[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'Ordre de la République tunisienne.</t>
         </is>
       </c>
     </row>
